--- a/MEK_AI/xlsx/トランキライザー_亜季ハッキング.xlsx
+++ b/MEK_AI/xlsx/トランキライザー_亜季ハッキング.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="76">
-  <si>
-    <t>機体</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="79">
+  <si>
+    <t>名</t>
   </si>
   <si>
     <t>機体名</t>
@@ -32,6 +32,9 @@
     <t>AI種類</t>
   </si>
   <si>
+    <t>AI行為種類</t>
+  </si>
+  <si>
     <t>発動技名</t>
   </si>
   <si>
@@ -188,7 +191,10 @@
     <t>亜季ハッキング</t>
   </si>
   <si>
-    <t>レーヴァテイン</t>
+    <t>移動系</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>1</t>
@@ -197,7 +203,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>-999</t>
+    <t>無制限</t>
   </si>
   <si>
     <t>47</t>
@@ -222,6 +228,9 @@
   </si>
   <si>
     <t>51136</t>
+  </si>
+  <si>
+    <t>攻撃系</t>
   </si>
   <si>
     <t>パラレルランチャー</t>
@@ -247,25 +256,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -372,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
@@ -389,43 +386,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AZ3"/>
+  <dimension ref="A1:BA3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
@@ -435,477 +402,486 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="12" t="s">
+      <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="12" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="12" t="s">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="12" t="s">
+      <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AS1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="12" t="s">
+      <c r="AT1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="12" t="s">
+      <c r="AU1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="12" t="s">
+      <c r="AV1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="AW1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="12" t="s">
+      <c r="AX1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="12" t="s">
+      <c r="AY1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="12" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>51</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="P2" s="12" t="s">
+      <c r="H2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="J2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" s="12" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="W2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="X2" s="12" t="s">
+      <c r="T2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Y2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z2" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA2" s="12" t="s">
+      <c r="U2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="X2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AC2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM2" s="12" t="s">
+      <c r="AB2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AN2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT2" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW2" s="12" t="s">
+      <c r="AD2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AX2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ2" s="12" t="s">
-        <v>60</v>
+      <c r="AO2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC3" s="12" t="s">
+      <c r="F3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AD3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT3" s="12" t="s">
+      <c r="H3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AU3" s="12" t="s">
+      <c r="I3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AV3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AW3" s="12" t="s">
+      <c r="V3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AX3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ3" s="12" t="s">
-        <v>60</v>
+      <c r="AE3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
